--- a/example_data/example_data1.current.en.xlsx
+++ b/example_data/example_data1.current.en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdr273/Documents/TOOL/Guide_work/example_data/Dummy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdr273/doc-edna-tool-guide/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C808516-B827-DE42-A4DD-D552A7B86EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB7D34-4443-DF45-9C80-F4B98ACBCF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="14380" windowHeight="18660" activeTab="1" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="24420" windowHeight="21780" activeTab="3" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
   </bookViews>
   <sheets>
     <sheet name="OTU_table" sheetId="1" r:id="rId1"/>
@@ -1091,92 +1091,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{7A60277E-7BC4-7048-B058-99EA98E6F5A0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Here you can add further fields that relate directly to the single OTUs, and have different values.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">NB: Most fields related to OTUs should be possible to give as one global value (in the *Study* table). If you find that you do not have one global value, then you may be dealing with a mixed dataset – i.e. a dataset with OTUs/sequences from more than one primer-set (e.g. COI and 16S sequences) from the same set of samples. We recommend to publish such datasets separately.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">OTU related fields that likely can bear different values:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">identificationRemarks </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1786,468 +1700,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> "-121.1761111".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5A0302AD-6FB7-7A4E-A4D6-8E0AED3FD6DD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Here you can add further fields that relate directly to the single samples, and have different values across samples .</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">NB: Some fields related to samples should be possible to give as one global value (in the *Study* table). </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Description</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">: In this template we have moved most sample related fields to the Study table. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fields that </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">most often </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">have more than one value and should be placed in this table:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">eventDate 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">decimalLatitude
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">decimalLongitude
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">associatedSequences
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">materialSampleID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fields that </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">may have </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">more than one value and should be placed in this table 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">recordedBy (different sampling persons?)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">env_medium (sediment AND water samples?)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">env_broad_scale (marine AND freshwater?)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">env_local_scale (root surface AND root tissue?)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">samplingProtocol (insect netting AND pan traps?)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">samp_collec_device
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">samp_collec_method
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">samp_mat_process
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples of fields </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>UNLIKELY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> to have more than one value and RARELY placed in this table 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">target_gene
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">target_subfragment
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">pcr_primer_forward
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">pcr_primer_reverse
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">pcr_primer_name_forward
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">pcr_primer_name_reverse
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">pcr_primer_reference
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">sop
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">seq_meth
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">otu_db
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">lib_layout
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">otu_class_appr
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t>otu_seq_comp_appr</t>
         </r>
       </text>
     </comment>
@@ -5339,7 +4791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -5530,9 +4982,6 @@
     <t>otu_seq_comp_appr</t>
   </si>
   <si>
-    <t>further terms</t>
-  </si>
-  <si>
     <t>Sample_5</t>
   </si>
   <si>
@@ -5549,12 +4998,6 @@
   </si>
   <si>
     <t>ITS4</t>
-  </si>
-  <si>
-    <t>basisOfRecord</t>
-  </si>
-  <si>
-    <t>kajsdkjasdkajsd</t>
   </si>
 </sst>
 </file>
@@ -6009,7 +5452,7 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6100,10 +5543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE51FA6-FDC1-C849-8BE1-0F90841A6D9E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6117,10 +5560,9 @@
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6148,11 +5590,8 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6181,7 +5620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -6207,7 +5646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -6233,7 +5672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6252,10 +5691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2128B45-DA79-B649-82CD-21102A8D0AD4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6264,7 +5703,7 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6277,11 +5716,8 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6295,7 +5731,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6309,7 +5745,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -6323,7 +5759,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -6337,9 +5773,9 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4">
         <v>41963</v>
@@ -6359,10 +5795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73708D4D-E6C2-A347-9F42-4980BDC24EB9}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6384,7 +5820,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6397,7 +5833,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6405,7 +5841,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6413,7 +5849,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6421,7 +5857,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6469,32 +5905,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/example_data/example_data1.current.en.xlsx
+++ b/example_data/example_data1.current.en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdr273/doc-edna-tool-guide/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB7D34-4443-DF45-9C80-F4B98ACBCF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA70BF0-4A33-8A4A-BC7B-E9BF5D6610AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="24420" windowHeight="21780" activeTab="3" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="24420" windowHeight="21780" xr2:uid="{A71D9F63-A05D-0B42-B9B0-1902D799A659}"/>
   </bookViews>
   <sheets>
     <sheet name="OTU_table" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> – no additional rows or columns should be included: no read totals, no taxonomy informatio, no sample metadata. 
+          <t xml:space="preserve"> – no additional rows or columns should be included: no read totals, no taxonomy information, no sample metadata. 
 </t>
         </r>
         <r>
@@ -5432,8 +5432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C892BD8-C93C-C74D-A89F-6FFFFFF15579}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5797,9 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73708D4D-E6C2-A347-9F42-4980BDC24EB9}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
